--- a/testdata/caldata.xlsx
+++ b/testdata/caldata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anubh\Downloads\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Principle</t>
   </si>
@@ -64,12 +64,19 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -79,7 +86,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +109,26 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -117,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -125,6 +152,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,6 +525,9 @@
       <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H2" t="s" s="5">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -516,6 +551,9 @@
       <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H3" t="s" s="6">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -539,6 +577,9 @@
       <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H4" t="s" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -562,6 +603,9 @@
       <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H5" t="s" s="8">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -584,6 +628,9 @@
       </c>
       <c r="G6" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="H6" t="s" s="9">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
